--- a/Curso_Cedepa_experimentales/potato DCA/PTPVS112016_CANAYPATA_exp1.xlsx
+++ b/Curso_Cedepa_experimentales/potato DCA/PTPVS112016_CANAYPATA_exp1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\katherine\2019\Treaty\Dataverse\Huancavelica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/262d2590214b62ee/Documentos/Cursos_dictados/Curso_Cedepa_experimentales/potato DCA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC26E7D2-5D53-4408-B5AD-5490551BE231}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC26E7D2-5D53-4408-B5AD-5490551BE231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4125" yWindow="1740" windowWidth="21600" windowHeight="11295" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Minimal" sheetId="6" r:id="rId1"/>
@@ -1411,7 +1411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1426,12 +1426,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2036,9 +2034,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
     <col min="2" max="2" width="89" bestFit="1" customWidth="1"/>
@@ -2054,55 +2054,55 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2110,7 +2110,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
       <c r="B9" t="s">
@@ -2118,95 +2118,95 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="2">
@@ -2214,7 +2214,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="2">
@@ -2222,7 +2222,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="2">
@@ -2230,126 +2230,124 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" t="s">
         <v>421</v>
       </c>
     </row>
@@ -2371,7 +2369,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -4812,7 +4810,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -9635,7 +9633,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.7109375" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
@@ -9950,9 +9948,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="3" width="19.140625" customWidth="1"/>
@@ -10562,7 +10562,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" customWidth="1"/>
@@ -10847,7 +10847,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
@@ -11396,7 +11396,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -13036,7 +13036,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -14674,9 +14674,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -14768,46 +14770,46 @@
       <c r="G2">
         <v>52</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="9">
         <v>4.5199999999999996</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="9">
         <v>1.87</v>
       </c>
       <c r="J2">
         <v>100</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="9">
         <v>6.39</v>
       </c>
       <c r="L2">
         <v>60</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="9">
         <v>8</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="9">
         <v>16.6666666666667</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="9">
         <v>1.0649999999999999</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="9">
         <v>21.3</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="9">
         <v>0.75333333333333297</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="9">
         <v>15.0666666666667</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="9">
         <v>63.9</v>
       </c>
-      <c r="T2" s="11">
+      <c r="T2" s="9">
         <v>35.5</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="9">
         <v>25.1111111111111</v>
       </c>
     </row>
@@ -14833,46 +14835,46 @@
       <c r="G3">
         <v>54</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <v>1.68</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="9">
         <v>0.76</v>
       </c>
       <c r="J3">
         <v>86</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="9">
         <v>2.44</v>
       </c>
       <c r="L3">
         <v>70</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="9">
         <v>4.5714285714285703</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="9">
         <v>12.285714285714301</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="9">
         <v>0.34857142857142898</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="9">
         <v>8.1333333333333293</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="9">
         <v>0.24</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="9">
         <v>5.6</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="9">
         <v>28.3720930232558</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="9">
         <v>11.619047619047601</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="9">
         <v>7.9999999999999902</v>
       </c>
     </row>
@@ -14898,46 +14900,46 @@
       <c r="G4">
         <v>56</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <v>2.25</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="9">
         <v>3.0249999999999999</v>
       </c>
       <c r="J4">
         <v>83</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="9">
         <v>5.2750000000000004</v>
       </c>
       <c r="L4">
         <v>80</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="9">
         <v>3.375</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="9">
         <v>10.375</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="9">
         <v>0.65937500000000004</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="9">
         <v>17.5833333333333</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="9">
         <v>0.28125</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="9">
         <v>7.5</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="9">
         <v>63.554216867469897</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="9">
         <v>21.9791666666666</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="9">
         <v>9.3749999999999893</v>
       </c>
     </row>
@@ -14963,46 +14965,46 @@
       <c r="G5">
         <v>64</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>2.4300000000000002</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="9">
         <v>2.0950000000000002</v>
       </c>
       <c r="J5">
         <v>89</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <v>4.5250000000000004</v>
       </c>
       <c r="L5">
         <v>90</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="9">
         <v>2.7777777777777799</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="9">
         <v>9.8888888888888893</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="9">
         <v>0.50277777777777799</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="9">
         <v>15.0833333333333</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="9">
         <v>0.27</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="9">
         <v>8.1</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="9">
         <v>50.842696629213499</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="9">
         <v>16.759259259259199</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="9">
         <v>8.9999999999999893</v>
       </c>
     </row>
@@ -15028,46 +15030,46 @@
       <c r="G6">
         <v>57</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>3.415</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="9">
         <v>1.62</v>
       </c>
       <c r="J6">
         <v>88</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="9">
         <v>5.0350000000000001</v>
       </c>
       <c r="L6">
         <v>90</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="9">
         <v>3.4444444444444402</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="9">
         <v>9.7777777777777803</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="9">
         <v>0.55944444444444397</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="9">
         <v>16.783333333333299</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="9">
         <v>0.37944444444444397</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="9">
         <v>11.383333333333301</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="9">
         <v>57.215909090909101</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="9">
         <v>18.648148148148099</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="9">
         <v>12.648148148148101</v>
       </c>
     </row>
@@ -15093,46 +15095,46 @@
       <c r="G7">
         <v>27</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="9">
         <v>3.125</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="9">
         <v>0.56000000000000005</v>
       </c>
       <c r="J7">
         <v>88</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="9">
         <v>3.6850000000000001</v>
       </c>
       <c r="L7">
         <v>90</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="9">
         <v>6.7777777777777803</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="9">
         <v>9.7777777777777803</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="9">
         <v>0.409444444444444</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="9">
         <v>12.283333333333299</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="9">
         <v>0.34722222222222199</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="9">
         <v>10.4166666666667</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="9">
         <v>41.875</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="9">
         <v>13.648148148148101</v>
       </c>
-      <c r="U7" s="11">
+      <c r="U7" s="9">
         <v>11.574074074074099</v>
       </c>
     </row>
@@ -15158,46 +15160,46 @@
       <c r="G8">
         <v>41</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <v>2.29</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="9">
         <v>0.95499999999999996</v>
       </c>
       <c r="J8">
         <v>86</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="9">
         <v>3.2450000000000001</v>
       </c>
       <c r="L8">
         <v>80</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="9">
         <v>5.625</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="9">
         <v>10.75</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="9">
         <v>0.40562500000000001</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="9">
         <v>10.8166666666667</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="9">
         <v>0.28625</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="9">
         <v>7.6333333333333302</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="9">
         <v>37.732558139534902</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="9">
         <v>13.5208333333333</v>
       </c>
-      <c r="U8" s="11">
+      <c r="U8" s="9">
         <v>9.5416666666666607</v>
       </c>
     </row>
@@ -15223,46 +15225,46 @@
       <c r="G9">
         <v>36</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="9">
         <v>2.79</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="9">
         <v>1.3</v>
       </c>
       <c r="J9">
         <v>74</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <v>4.09</v>
       </c>
       <c r="L9">
         <v>90</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="9">
         <v>4.2222222222222197</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="9">
         <v>8.2222222222222197</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="9">
         <v>0.45444444444444398</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="9">
         <v>13.633333333333301</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="9">
         <v>0.31</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="9">
         <v>9.3000000000000007</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="9">
         <v>55.270270270270302</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="9">
         <v>15.148148148148101</v>
       </c>
-      <c r="U9" s="11">
+      <c r="U9" s="9">
         <v>10.3333333333333</v>
       </c>
     </row>
@@ -15288,46 +15290,46 @@
       <c r="G10">
         <v>48</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <v>5.5750000000000002</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="9">
         <v>1.665</v>
       </c>
       <c r="J10">
         <v>102</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="9">
         <v>7.24</v>
       </c>
       <c r="L10">
         <v>100</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="9">
         <v>5.4</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="9">
         <v>10.199999999999999</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="9">
         <v>0.72399999999999998</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="9">
         <v>24.133333333333301</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="9">
         <v>0.5575</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="9">
         <v>18.5833333333333</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S10" s="9">
         <v>70.980392156862706</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="9">
         <v>24.133333333333301</v>
       </c>
-      <c r="U10" s="11">
+      <c r="U10" s="9">
         <v>18.5833333333333</v>
       </c>
     </row>
@@ -15353,46 +15355,46 @@
       <c r="G11">
         <v>31</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <v>1.075</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="9">
         <v>0.38500000000000001</v>
       </c>
       <c r="J11">
         <v>61</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="9">
         <v>1.46</v>
       </c>
       <c r="L11">
         <v>90</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="9">
         <v>3.3333333333333299</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="9">
         <v>6.7777777777777803</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="9">
         <v>0.16222222222222199</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="9">
         <v>4.8666666666666698</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="9">
         <v>0.11944444444444401</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="9">
         <v>3.5833333333333299</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="9">
         <v>23.934426229508201</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="9">
         <v>5.4074074074074003</v>
       </c>
-      <c r="U11" s="11">
+      <c r="U11" s="9">
         <v>3.9814814814814801</v>
       </c>
     </row>
@@ -15418,46 +15420,46 @@
       <c r="G12">
         <v>40</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <v>2.36</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="9">
         <v>0.53500000000000003</v>
       </c>
       <c r="J12">
         <v>89</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="9">
         <v>2.895</v>
       </c>
       <c r="L12">
         <v>70</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="9">
         <v>7</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="9">
         <v>12.714285714285699</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="9">
         <v>0.41357142857142898</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="9">
         <v>9.65</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="9">
         <v>0.33714285714285702</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="9">
         <v>7.8666666666666698</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12" s="9">
         <v>32.528089887640398</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="9">
         <v>13.785714285714301</v>
       </c>
-      <c r="U12" s="11">
+      <c r="U12" s="9">
         <v>11.2380952380952</v>
       </c>
     </row>
@@ -15483,46 +15485,46 @@
       <c r="G13">
         <v>25</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="9">
         <v>4.7649999999999997</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="9">
         <v>0.38500000000000001</v>
       </c>
       <c r="J13">
         <v>97</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="9">
         <v>5.15</v>
       </c>
       <c r="L13">
         <v>90</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="9">
         <v>8</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="9">
         <v>10.7777777777778</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="9">
         <v>0.57222222222222197</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="9">
         <v>17.1666666666667</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="9">
         <v>0.52944444444444405</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="9">
         <v>15.883333333333301</v>
       </c>
-      <c r="S13" s="11">
+      <c r="S13" s="9">
         <v>53.0927835051546</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="9">
         <v>19.074074074074101</v>
       </c>
-      <c r="U13" s="11">
+      <c r="U13" s="9">
         <v>17.648148148148099</v>
       </c>
     </row>
@@ -15548,46 +15550,46 @@
       <c r="G14">
         <v>15</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="9">
         <v>4.26</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="9">
         <v>0.45</v>
       </c>
       <c r="J14">
         <v>69</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="9">
         <v>4.71</v>
       </c>
       <c r="L14">
         <v>70</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="9">
         <v>7.71428571428571</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="9">
         <v>9.8571428571428594</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="9">
         <v>0.67285714285714304</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="9">
         <v>15.7</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="9">
         <v>0.60857142857142899</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="9">
         <v>14.2</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S14" s="9">
         <v>68.260869565217405</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="9">
         <v>22.428571428571399</v>
       </c>
-      <c r="U14" s="11">
+      <c r="U14" s="9">
         <v>20.285714285714299</v>
       </c>
     </row>
@@ -15613,46 +15615,46 @@
       <c r="G15">
         <v>44</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="9">
         <v>2.46</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="9">
         <v>0.97</v>
       </c>
       <c r="J15">
         <v>84</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="9">
         <v>3.43</v>
       </c>
       <c r="L15">
         <v>100</v>
       </c>
-      <c r="M15" s="11">
-        <v>4</v>
-      </c>
-      <c r="N15" s="11">
+      <c r="M15" s="9">
+        <v>4</v>
+      </c>
+      <c r="N15" s="9">
         <v>8.4</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="9">
         <v>0.34300000000000003</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P15" s="9">
         <v>11.4333333333333</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="9">
         <v>0.246</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="9">
         <v>8.1999999999999993</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S15" s="9">
         <v>40.8333333333333</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="9">
         <v>11.4333333333333</v>
       </c>
-      <c r="U15" s="11">
+      <c r="U15" s="9">
         <v>8.1999999999999904</v>
       </c>
     </row>
@@ -15678,46 +15680,46 @@
       <c r="G16">
         <v>16</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="9">
         <v>2.7549999999999999</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="9">
         <v>1.4</v>
       </c>
       <c r="J16">
         <v>52</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="9">
         <v>4.1550000000000002</v>
       </c>
       <c r="L16">
         <v>80</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="9">
         <v>4.5</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="9">
         <v>6.5</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="9">
         <v>0.51937500000000003</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="9">
         <v>13.85</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="9">
         <v>0.34437499999999999</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="9">
         <v>9.18333333333333</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S16" s="9">
         <v>79.903846153846104</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="9">
         <v>17.3125</v>
       </c>
-      <c r="U16" s="11">
+      <c r="U16" s="9">
         <v>11.4791666666667</v>
       </c>
     </row>
@@ -15743,46 +15745,46 @@
       <c r="G17">
         <v>20</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="9">
         <v>2.3079999999999998</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="9">
         <v>0.5</v>
       </c>
       <c r="J17">
         <v>56</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="9">
         <v>2.8079999999999998</v>
       </c>
       <c r="L17">
         <v>100</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="9">
         <v>3.6</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="9">
         <v>5.6</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="9">
         <v>0.28079999999999999</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P17" s="9">
         <v>9.36</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="9">
         <v>0.23080000000000001</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="9">
         <v>7.6933333333333298</v>
       </c>
-      <c r="S17" s="11">
+      <c r="S17" s="9">
         <v>50.142857142857103</v>
       </c>
-      <c r="T17" s="11">
+      <c r="T17" s="9">
         <v>9.3599999999999905</v>
       </c>
-      <c r="U17" s="11">
+      <c r="U17" s="9">
         <v>7.69333333333332</v>
       </c>
     </row>
@@ -15808,46 +15810,46 @@
       <c r="G18">
         <v>92</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="9">
         <v>2.96</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="9">
         <v>1.71</v>
       </c>
       <c r="J18">
         <v>142</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="9">
         <v>4.67</v>
       </c>
       <c r="L18">
         <v>100</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="9">
         <v>5</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="9">
         <v>14.2</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="9">
         <v>0.46700000000000003</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" s="9">
         <v>15.5666666666667</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="9">
         <v>0.29599999999999999</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="9">
         <v>9.8666666666666707</v>
       </c>
-      <c r="S18" s="11">
+      <c r="S18" s="9">
         <v>32.887323943661997</v>
       </c>
-      <c r="T18" s="11">
+      <c r="T18" s="9">
         <v>15.5666666666667</v>
       </c>
-      <c r="U18" s="11">
+      <c r="U18" s="9">
         <v>9.86666666666666</v>
       </c>
     </row>
@@ -15873,46 +15875,46 @@
       <c r="G19">
         <v>27</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="9">
         <v>5.2149999999999999</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="9">
         <v>0.81499999999999995</v>
       </c>
       <c r="J19">
         <v>79</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="9">
         <v>6.03</v>
       </c>
       <c r="L19">
         <v>100</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="9">
         <v>5.2</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="9">
         <v>7.9</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="9">
         <v>0.60299999999999998</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P19" s="9">
         <v>20.100000000000001</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="9">
         <v>0.52149999999999996</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="9">
         <v>17.383333333333301</v>
       </c>
-      <c r="S19" s="11">
+      <c r="S19" s="9">
         <v>76.329113924050603</v>
       </c>
-      <c r="T19" s="11">
+      <c r="T19" s="9">
         <v>20.100000000000001</v>
       </c>
-      <c r="U19" s="11">
+      <c r="U19" s="9">
         <v>17.383333333333301</v>
       </c>
     </row>
@@ -15938,46 +15940,46 @@
       <c r="G20">
         <v>31</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="9">
         <v>4.375</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="9">
         <v>1.07</v>
       </c>
       <c r="J20">
         <v>84</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="9">
         <v>5.4450000000000003</v>
       </c>
       <c r="L20">
         <v>90</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="9">
         <v>5.8888888888888902</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="9">
         <v>9.3333333333333304</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="9">
         <v>0.60499999999999998</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P20" s="9">
         <v>18.149999999999999</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q20" s="9">
         <v>0.48611111111111099</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R20" s="9">
         <v>14.5833333333333</v>
       </c>
-      <c r="S20" s="11">
+      <c r="S20" s="9">
         <v>64.821428571428598</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="9">
         <v>20.1666666666666</v>
       </c>
-      <c r="U20" s="11">
+      <c r="U20" s="9">
         <v>16.203703703703699</v>
       </c>
     </row>
@@ -16003,46 +16005,46 @@
       <c r="G21">
         <v>33</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="9">
         <v>7.4749999999999996</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="9">
         <v>0.68500000000000005</v>
       </c>
       <c r="J21">
         <v>142</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="9">
         <v>8.16</v>
       </c>
       <c r="L21">
         <v>80</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="9">
         <v>13.625</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="9">
         <v>17.75</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="9">
         <v>1.02</v>
       </c>
-      <c r="P21" s="11">
+      <c r="P21" s="9">
         <v>27.2</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q21" s="9">
         <v>0.93437499999999996</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R21" s="9">
         <v>24.9166666666667</v>
       </c>
-      <c r="S21" s="11">
+      <c r="S21" s="9">
         <v>57.464788732394403</v>
       </c>
-      <c r="T21" s="11">
+      <c r="T21" s="9">
         <v>34</v>
       </c>
-      <c r="U21" s="11">
+      <c r="U21" s="9">
         <v>31.1458333333333</v>
       </c>
     </row>
@@ -16068,46 +16070,46 @@
       <c r="G22">
         <v>26</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="9">
         <v>7.468</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="9">
         <v>1.1200000000000001</v>
       </c>
       <c r="J22">
         <v>96</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="9">
         <v>8.5879999999999992</v>
       </c>
       <c r="L22">
         <v>90</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="9">
         <v>7.7777777777777803</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="9">
         <v>10.6666666666667</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="9">
         <v>0.95422222222222197</v>
       </c>
-      <c r="P22" s="11">
+      <c r="P22" s="9">
         <v>28.626666666666701</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q22" s="9">
         <v>0.82977777777777795</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R22" s="9">
         <v>24.893333333333299</v>
       </c>
-      <c r="S22" s="11">
+      <c r="S22" s="9">
         <v>89.4583333333333</v>
       </c>
-      <c r="T22" s="11">
+      <c r="T22" s="9">
         <v>31.8074074074074</v>
       </c>
-      <c r="U22" s="11">
+      <c r="U22" s="9">
         <v>27.659259259259201</v>
       </c>
     </row>
@@ -16133,46 +16135,46 @@
       <c r="G23">
         <v>32</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="9">
         <v>1.02</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="9">
         <v>0.95</v>
       </c>
       <c r="J23">
         <v>49</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="9">
         <v>1.97</v>
       </c>
       <c r="L23">
         <v>80</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="9">
         <v>2.125</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="9">
         <v>6.125</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="9">
         <v>0.24625</v>
       </c>
-      <c r="P23" s="11">
+      <c r="P23" s="9">
         <v>6.56666666666667</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="Q23" s="9">
         <v>0.1275</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="9">
         <v>3.4</v>
       </c>
-      <c r="S23" s="11">
+      <c r="S23" s="9">
         <v>40.2040816326531</v>
       </c>
-      <c r="T23" s="11">
+      <c r="T23" s="9">
         <v>8.2083333333333304</v>
       </c>
-      <c r="U23" s="11">
+      <c r="U23" s="9">
         <v>4.25</v>
       </c>
     </row>
@@ -16198,46 +16200,46 @@
       <c r="G24">
         <v>30</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="9">
         <v>2.4500000000000002</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="9">
         <v>0.85</v>
       </c>
       <c r="J24">
         <v>67</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="9">
         <v>3.3</v>
       </c>
       <c r="L24">
         <v>80</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M24" s="9">
         <v>4.625</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="9">
         <v>8.375</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="9">
         <v>0.41249999999999998</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" s="9">
         <v>11</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q24" s="9">
         <v>0.30625000000000002</v>
       </c>
-      <c r="R24" s="11">
+      <c r="R24" s="9">
         <v>8.1666666666666696</v>
       </c>
-      <c r="S24" s="11">
+      <c r="S24" s="9">
         <v>49.253731343283597</v>
       </c>
-      <c r="T24" s="11">
+      <c r="T24" s="9">
         <v>13.75</v>
       </c>
-      <c r="U24" s="11">
+      <c r="U24" s="9">
         <v>10.2083333333333</v>
       </c>
     </row>
@@ -16263,46 +16265,46 @@
       <c r="G25">
         <v>49</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="9">
         <v>3.3250000000000002</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="9">
         <v>1.365</v>
       </c>
       <c r="J25">
         <v>91</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="9">
         <v>4.6900000000000004</v>
       </c>
       <c r="L25">
         <v>100</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="9">
         <v>4.2</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N25" s="9">
         <v>9.1</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O25" s="9">
         <v>0.46899999999999997</v>
       </c>
-      <c r="P25" s="11">
+      <c r="P25" s="9">
         <v>15.633333333333301</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="Q25" s="9">
         <v>0.33250000000000002</v>
       </c>
-      <c r="R25" s="11">
+      <c r="R25" s="9">
         <v>11.0833333333333</v>
       </c>
-      <c r="S25" s="11">
+      <c r="S25" s="9">
         <v>51.538461538461497</v>
       </c>
-      <c r="T25" s="11">
+      <c r="T25" s="9">
         <v>15.633333333333301</v>
       </c>
-      <c r="U25" s="11">
+      <c r="U25" s="9">
         <v>11.0833333333333</v>
       </c>
     </row>
@@ -16328,46 +16330,46 @@
       <c r="G26">
         <v>28</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="9">
         <v>1.83</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="9">
         <v>0.65500000000000003</v>
       </c>
       <c r="J26">
         <v>50</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="9">
         <v>2.4849999999999999</v>
       </c>
       <c r="L26">
         <v>80</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26" s="9">
         <v>2.75</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N26" s="9">
         <v>6.25</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O26" s="9">
         <v>0.31062499999999998</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P26" s="9">
         <v>8.2833333333333297</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="Q26" s="9">
         <v>0.22875000000000001</v>
       </c>
-      <c r="R26" s="11">
+      <c r="R26" s="9">
         <v>6.1</v>
       </c>
-      <c r="S26" s="11">
+      <c r="S26" s="9">
         <v>49.7</v>
       </c>
-      <c r="T26" s="11">
+      <c r="T26" s="9">
         <v>10.3541666666667</v>
       </c>
-      <c r="U26" s="11">
+      <c r="U26" s="9">
         <v>7.6249999999999902</v>
       </c>
     </row>
@@ -16393,46 +16395,46 @@
       <c r="G27">
         <v>39</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="9">
         <v>3.34</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="9">
         <v>2.46</v>
       </c>
       <c r="J27">
         <v>69</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="9">
         <v>5.8</v>
       </c>
       <c r="L27">
         <v>80</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M27" s="9">
         <v>3.75</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N27" s="9">
         <v>8.625</v>
       </c>
-      <c r="O27" s="11">
+      <c r="O27" s="9">
         <v>0.72499999999999998</v>
       </c>
-      <c r="P27" s="11">
+      <c r="P27" s="9">
         <v>19.3333333333333</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="Q27" s="9">
         <v>0.41749999999999998</v>
       </c>
-      <c r="R27" s="11">
+      <c r="R27" s="9">
         <v>11.133333333333301</v>
       </c>
-      <c r="S27" s="11">
+      <c r="S27" s="9">
         <v>84.057971014492793</v>
       </c>
-      <c r="T27" s="11">
+      <c r="T27" s="9">
         <v>24.1666666666666</v>
       </c>
-      <c r="U27" s="11">
+      <c r="U27" s="9">
         <v>13.9166666666667</v>
       </c>
     </row>
@@ -16458,46 +16460,46 @@
       <c r="G28">
         <v>49</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="9">
         <v>2.67</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="9">
         <v>1.79</v>
       </c>
       <c r="J28">
         <v>93</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="9">
         <v>4.46</v>
       </c>
       <c r="L28">
         <v>70</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M28" s="9">
         <v>6.28571428571429</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N28" s="9">
         <v>13.285714285714301</v>
       </c>
-      <c r="O28" s="11">
+      <c r="O28" s="9">
         <v>0.63714285714285701</v>
       </c>
-      <c r="P28" s="11">
+      <c r="P28" s="9">
         <v>14.866666666666699</v>
       </c>
-      <c r="Q28" s="11">
+      <c r="Q28" s="9">
         <v>0.38142857142857101</v>
       </c>
-      <c r="R28" s="11">
+      <c r="R28" s="9">
         <v>8.9</v>
       </c>
-      <c r="S28" s="11">
+      <c r="S28" s="9">
         <v>47.956989247311803</v>
       </c>
-      <c r="T28" s="11">
+      <c r="T28" s="9">
         <v>21.238095238095202</v>
       </c>
-      <c r="U28" s="11">
+      <c r="U28" s="9">
         <v>12.714285714285699</v>
       </c>
     </row>
@@ -16523,46 +16525,46 @@
       <c r="G29">
         <v>38</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="9">
         <v>3.2549999999999999</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="9">
         <v>1.1299999999999999</v>
       </c>
       <c r="J29">
         <v>75</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="9">
         <v>4.3849999999999998</v>
       </c>
       <c r="L29">
         <v>80</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="9">
         <v>4.625</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="9">
         <v>9.375</v>
       </c>
-      <c r="O29" s="11">
+      <c r="O29" s="9">
         <v>0.54812499999999997</v>
       </c>
-      <c r="P29" s="11">
+      <c r="P29" s="9">
         <v>14.616666666666699</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q29" s="9">
         <v>0.40687499999999999</v>
       </c>
-      <c r="R29" s="11">
+      <c r="R29" s="9">
         <v>10.85</v>
       </c>
-      <c r="S29" s="11">
+      <c r="S29" s="9">
         <v>58.466666666666697</v>
       </c>
-      <c r="T29" s="11">
+      <c r="T29" s="9">
         <v>18.2708333333333</v>
       </c>
-      <c r="U29" s="11">
+      <c r="U29" s="9">
         <v>13.5625</v>
       </c>
     </row>
@@ -16588,46 +16590,46 @@
       <c r="G30">
         <v>37</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="9">
         <v>6.4</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="9">
         <v>1</v>
       </c>
       <c r="J30">
         <v>126</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="9">
         <v>7.4</v>
       </c>
       <c r="L30">
         <v>70</v>
       </c>
-      <c r="M30" s="11">
+      <c r="M30" s="9">
         <v>12.714285714285699</v>
       </c>
-      <c r="N30" s="11">
+      <c r="N30" s="9">
         <v>18</v>
       </c>
-      <c r="O30" s="11">
+      <c r="O30" s="9">
         <v>1.05714285714286</v>
       </c>
-      <c r="P30" s="11">
+      <c r="P30" s="9">
         <v>24.6666666666667</v>
       </c>
-      <c r="Q30" s="11">
+      <c r="Q30" s="9">
         <v>0.91428571428571404</v>
       </c>
-      <c r="R30" s="11">
+      <c r="R30" s="9">
         <v>21.3333333333333</v>
       </c>
-      <c r="S30" s="11">
+      <c r="S30" s="9">
         <v>58.730158730158699</v>
       </c>
-      <c r="T30" s="11">
+      <c r="T30" s="9">
         <v>35.238095238095198</v>
       </c>
-      <c r="U30" s="11">
+      <c r="U30" s="9">
         <v>30.4761904761904</v>
       </c>
     </row>
@@ -16653,46 +16655,46 @@
       <c r="G31">
         <v>63</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="9">
         <v>2.1</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="9">
         <v>1.66</v>
       </c>
       <c r="J31">
         <v>99</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="9">
         <v>3.76</v>
       </c>
       <c r="L31">
         <v>90</v>
       </c>
-      <c r="M31" s="11">
-        <v>4</v>
-      </c>
-      <c r="N31" s="11">
+      <c r="M31" s="9">
+        <v>4</v>
+      </c>
+      <c r="N31" s="9">
         <v>11</v>
       </c>
-      <c r="O31" s="11">
+      <c r="O31" s="9">
         <v>0.41777777777777803</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P31" s="9">
         <v>12.533333333333299</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="Q31" s="9">
         <v>0.233333333333333</v>
       </c>
-      <c r="R31" s="11">
+      <c r="R31" s="9">
         <v>7</v>
       </c>
-      <c r="S31" s="11">
+      <c r="S31" s="9">
         <v>37.979797979798001</v>
       </c>
-      <c r="T31" s="11">
+      <c r="T31" s="9">
         <v>13.925925925925901</v>
       </c>
-      <c r="U31" s="11">
+      <c r="U31" s="9">
         <v>7.7777777777777697</v>
       </c>
     </row>
@@ -16718,46 +16720,46 @@
       <c r="G32">
         <v>27</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="9">
         <v>3.45</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="9">
         <v>0.8</v>
       </c>
       <c r="J32">
         <v>70</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="9">
         <v>4.25</v>
       </c>
       <c r="L32">
         <v>80</v>
       </c>
-      <c r="M32" s="11">
+      <c r="M32" s="9">
         <v>5.375</v>
       </c>
-      <c r="N32" s="11">
+      <c r="N32" s="9">
         <v>8.75</v>
       </c>
-      <c r="O32" s="11">
+      <c r="O32" s="9">
         <v>0.53125</v>
       </c>
-      <c r="P32" s="11">
+      <c r="P32" s="9">
         <v>14.1666666666667</v>
       </c>
-      <c r="Q32" s="11">
+      <c r="Q32" s="9">
         <v>0.43125000000000002</v>
       </c>
-      <c r="R32" s="11">
+      <c r="R32" s="9">
         <v>11.5</v>
       </c>
-      <c r="S32" s="11">
+      <c r="S32" s="9">
         <v>60.714285714285701</v>
       </c>
-      <c r="T32" s="11">
+      <c r="T32" s="9">
         <v>17.7083333333333</v>
       </c>
-      <c r="U32" s="11">
+      <c r="U32" s="9">
         <v>14.375</v>
       </c>
     </row>
@@ -16783,46 +16785,46 @@
       <c r="G33">
         <v>14</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="9">
         <v>2.0019999999999998</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="9">
         <v>0.33</v>
       </c>
       <c r="J33">
         <v>50</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="9">
         <v>2.3319999999999999</v>
       </c>
       <c r="L33">
         <v>70</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M33" s="9">
         <v>5.1428571428571397</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N33" s="9">
         <v>7.1428571428571397</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O33" s="9">
         <v>0.33314285714285702</v>
       </c>
-      <c r="P33" s="11">
+      <c r="P33" s="9">
         <v>7.7733333333333299</v>
       </c>
-      <c r="Q33" s="11">
+      <c r="Q33" s="9">
         <v>0.28599999999999998</v>
       </c>
-      <c r="R33" s="11">
+      <c r="R33" s="9">
         <v>6.6733333333333302</v>
       </c>
-      <c r="S33" s="11">
+      <c r="S33" s="9">
         <v>46.64</v>
       </c>
-      <c r="T33" s="11">
+      <c r="T33" s="9">
         <v>11.104761904761901</v>
       </c>
-      <c r="U33" s="11">
+      <c r="U33" s="9">
         <v>9.5333333333333208</v>
       </c>
     </row>
@@ -16848,46 +16850,46 @@
       <c r="G34">
         <v>46</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="9">
         <v>4.5599999999999996</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="9">
         <v>1.605</v>
       </c>
       <c r="J34">
         <v>117</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="9">
         <v>6.165</v>
       </c>
       <c r="L34">
         <v>70</v>
       </c>
-      <c r="M34" s="11">
+      <c r="M34" s="9">
         <v>10.1428571428571</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N34" s="9">
         <v>16.714285714285701</v>
       </c>
-      <c r="O34" s="11">
+      <c r="O34" s="9">
         <v>0.880714285714286</v>
       </c>
-      <c r="P34" s="11">
+      <c r="P34" s="9">
         <v>20.55</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="Q34" s="9">
         <v>0.65142857142857102</v>
       </c>
-      <c r="R34" s="11">
+      <c r="R34" s="9">
         <v>15.2</v>
       </c>
-      <c r="S34" s="11">
+      <c r="S34" s="9">
         <v>52.692307692307701</v>
       </c>
-      <c r="T34" s="11">
+      <c r="T34" s="9">
         <v>29.357142857142801</v>
       </c>
-      <c r="U34" s="11">
+      <c r="U34" s="9">
         <v>21.714285714285701</v>
       </c>
     </row>
@@ -16913,46 +16915,46 @@
       <c r="G35">
         <v>22</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="9">
         <v>4.42</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="9">
         <v>0.65</v>
       </c>
       <c r="J35">
         <v>98</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K35" s="9">
         <v>5.07</v>
       </c>
       <c r="L35">
         <v>80</v>
       </c>
-      <c r="M35" s="11">
+      <c r="M35" s="9">
         <v>9.5</v>
       </c>
-      <c r="N35" s="11">
+      <c r="N35" s="9">
         <v>12.25</v>
       </c>
-      <c r="O35" s="11">
+      <c r="O35" s="9">
         <v>0.63375000000000004</v>
       </c>
-      <c r="P35" s="11">
+      <c r="P35" s="9">
         <v>16.899999999999999</v>
       </c>
-      <c r="Q35" s="11">
+      <c r="Q35" s="9">
         <v>0.55249999999999999</v>
       </c>
-      <c r="R35" s="11">
+      <c r="R35" s="9">
         <v>14.733333333333301</v>
       </c>
-      <c r="S35" s="11">
+      <c r="S35" s="9">
         <v>51.734693877551003</v>
       </c>
-      <c r="T35" s="11">
+      <c r="T35" s="9">
         <v>21.125</v>
       </c>
-      <c r="U35" s="11">
+      <c r="U35" s="9">
         <v>18.4166666666666</v>
       </c>
     </row>
@@ -16978,46 +16980,46 @@
       <c r="G36">
         <v>7</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="9">
         <v>1.95</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="9">
         <v>0.17499999999999999</v>
       </c>
       <c r="J36">
         <v>23</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="9">
         <v>2.125</v>
       </c>
       <c r="L36">
         <v>70</v>
       </c>
-      <c r="M36" s="11">
+      <c r="M36" s="9">
         <v>2.28571428571429</v>
       </c>
-      <c r="N36" s="11">
+      <c r="N36" s="9">
         <v>3.28571428571429</v>
       </c>
-      <c r="O36" s="11">
+      <c r="O36" s="9">
         <v>0.30357142857142899</v>
       </c>
-      <c r="P36" s="11">
+      <c r="P36" s="9">
         <v>7.0833333333333304</v>
       </c>
-      <c r="Q36" s="11">
+      <c r="Q36" s="9">
         <v>0.27857142857142903</v>
       </c>
-      <c r="R36" s="11">
+      <c r="R36" s="9">
         <v>6.5</v>
       </c>
-      <c r="S36" s="11">
+      <c r="S36" s="9">
         <v>92.391304347826093</v>
       </c>
-      <c r="T36" s="11">
+      <c r="T36" s="9">
         <v>10.119047619047601</v>
       </c>
-      <c r="U36" s="11">
+      <c r="U36" s="9">
         <v>9.2857142857142794</v>
       </c>
     </row>
@@ -17043,46 +17045,46 @@
       <c r="G37">
         <v>26</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="9">
         <v>2.0499999999999998</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="9">
         <v>0.66500000000000004</v>
       </c>
       <c r="J37">
         <v>47</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="9">
         <v>2.7149999999999999</v>
       </c>
       <c r="L37">
         <v>70</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M37" s="9">
         <v>3</v>
       </c>
-      <c r="N37" s="11">
+      <c r="N37" s="9">
         <v>6.71428571428571</v>
       </c>
-      <c r="O37" s="11">
+      <c r="O37" s="9">
         <v>0.38785714285714301</v>
       </c>
-      <c r="P37" s="11">
+      <c r="P37" s="9">
         <v>9.0500000000000007</v>
       </c>
-      <c r="Q37" s="11">
+      <c r="Q37" s="9">
         <v>0.29285714285714298</v>
       </c>
-      <c r="R37" s="11">
+      <c r="R37" s="9">
         <v>6.8333333333333304</v>
       </c>
-      <c r="S37" s="11">
+      <c r="S37" s="9">
         <v>57.7659574468085</v>
       </c>
-      <c r="T37" s="11">
+      <c r="T37" s="9">
         <v>12.9285714285714</v>
       </c>
-      <c r="U37" s="11">
+      <c r="U37" s="9">
         <v>9.7619047619047503</v>
       </c>
     </row>
@@ -17108,46 +17110,46 @@
       <c r="G38">
         <v>29</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="9">
         <v>2.645</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38" s="9">
         <v>1.51</v>
       </c>
       <c r="J38">
         <v>60</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="9">
         <v>4.1550000000000002</v>
       </c>
       <c r="L38">
         <v>80</v>
       </c>
-      <c r="M38" s="11">
+      <c r="M38" s="9">
         <v>3.875</v>
       </c>
-      <c r="N38" s="11">
+      <c r="N38" s="9">
         <v>7.5</v>
       </c>
-      <c r="O38" s="11">
+      <c r="O38" s="9">
         <v>0.51937500000000003</v>
       </c>
-      <c r="P38" s="11">
+      <c r="P38" s="9">
         <v>13.85</v>
       </c>
-      <c r="Q38" s="11">
+      <c r="Q38" s="9">
         <v>0.330625</v>
       </c>
-      <c r="R38" s="11">
+      <c r="R38" s="9">
         <v>8.81666666666667</v>
       </c>
-      <c r="S38" s="11">
+      <c r="S38" s="9">
         <v>69.25</v>
       </c>
-      <c r="T38" s="11">
+      <c r="T38" s="9">
         <v>17.3125</v>
       </c>
-      <c r="U38" s="11">
+      <c r="U38" s="9">
         <v>11.0208333333333</v>
       </c>
     </row>
@@ -17173,46 +17175,46 @@
       <c r="G39">
         <v>23</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="9">
         <v>1.46</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I39" s="9">
         <v>0.47499999999999998</v>
       </c>
       <c r="J39">
         <v>58</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K39" s="9">
         <v>1.9350000000000001</v>
       </c>
       <c r="L39">
         <v>80</v>
       </c>
-      <c r="M39" s="11">
+      <c r="M39" s="9">
         <v>4.375</v>
       </c>
-      <c r="N39" s="11">
+      <c r="N39" s="9">
         <v>7.25</v>
       </c>
-      <c r="O39" s="11">
+      <c r="O39" s="9">
         <v>0.24187500000000001</v>
       </c>
-      <c r="P39" s="11">
+      <c r="P39" s="9">
         <v>6.45</v>
       </c>
-      <c r="Q39" s="11">
+      <c r="Q39" s="9">
         <v>0.1825</v>
       </c>
-      <c r="R39" s="11">
+      <c r="R39" s="9">
         <v>4.8666666666666698</v>
       </c>
-      <c r="S39" s="11">
+      <c r="S39" s="9">
         <v>33.362068965517203</v>
       </c>
-      <c r="T39" s="11">
+      <c r="T39" s="9">
         <v>8.0624999999999893</v>
       </c>
-      <c r="U39" s="11">
+      <c r="U39" s="9">
         <v>6.0833333333333304</v>
       </c>
     </row>
@@ -17238,46 +17240,46 @@
       <c r="G40">
         <v>94</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="9">
         <v>5.4</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40" s="9">
         <v>2.0299999999999998</v>
       </c>
       <c r="J40">
         <v>154</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="9">
         <v>7.43</v>
       </c>
       <c r="L40">
         <v>80</v>
       </c>
-      <c r="M40" s="11">
+      <c r="M40" s="9">
         <v>7.5</v>
       </c>
-      <c r="N40" s="11">
+      <c r="N40" s="9">
         <v>19.25</v>
       </c>
-      <c r="O40" s="11">
+      <c r="O40" s="9">
         <v>0.92874999999999996</v>
       </c>
-      <c r="P40" s="11">
+      <c r="P40" s="9">
         <v>24.766666666666701</v>
       </c>
-      <c r="Q40" s="11">
+      <c r="Q40" s="9">
         <v>0.67500000000000004</v>
       </c>
-      <c r="R40" s="11">
+      <c r="R40" s="9">
         <v>18</v>
       </c>
-      <c r="S40" s="11">
+      <c r="S40" s="9">
         <v>48.246753246753201</v>
       </c>
-      <c r="T40" s="11">
+      <c r="T40" s="9">
         <v>30.9583333333333</v>
       </c>
-      <c r="U40" s="11">
+      <c r="U40" s="9">
         <v>22.5</v>
       </c>
     </row>
@@ -17303,46 +17305,46 @@
       <c r="G41">
         <v>31</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="9">
         <v>2.1749999999999998</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41" s="9">
         <v>0.875</v>
       </c>
       <c r="J41">
         <v>68</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K41" s="9">
         <v>3.05</v>
       </c>
       <c r="L41">
         <v>80</v>
       </c>
-      <c r="M41" s="11">
+      <c r="M41" s="9">
         <v>4.625</v>
       </c>
-      <c r="N41" s="11">
+      <c r="N41" s="9">
         <v>8.5</v>
       </c>
-      <c r="O41" s="11">
+      <c r="O41" s="9">
         <v>0.38124999999999998</v>
       </c>
-      <c r="P41" s="11">
+      <c r="P41" s="9">
         <v>10.1666666666667</v>
       </c>
-      <c r="Q41" s="11">
+      <c r="Q41" s="9">
         <v>0.27187499999999998</v>
       </c>
-      <c r="R41" s="11">
+      <c r="R41" s="9">
         <v>7.25</v>
       </c>
-      <c r="S41" s="11">
+      <c r="S41" s="9">
         <v>44.852941176470601</v>
       </c>
-      <c r="T41" s="11">
+      <c r="T41" s="9">
         <v>12.7083333333333</v>
       </c>
-      <c r="U41" s="11">
+      <c r="U41" s="9">
         <v>9.0624999999999893</v>
       </c>
     </row>
@@ -17368,46 +17370,46 @@
       <c r="G42">
         <v>54</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="9">
         <v>3.9350000000000001</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="9">
         <v>2.33</v>
       </c>
       <c r="J42">
         <v>103</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="9">
         <v>6.2649999999999997</v>
       </c>
       <c r="L42">
         <v>100</v>
       </c>
-      <c r="M42" s="11">
+      <c r="M42" s="9">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N42" s="11">
+      <c r="N42" s="9">
         <v>10.3</v>
       </c>
-      <c r="O42" s="11">
+      <c r="O42" s="9">
         <v>0.62649999999999995</v>
       </c>
-      <c r="P42" s="11">
+      <c r="P42" s="9">
         <v>20.883333333333301</v>
       </c>
-      <c r="Q42" s="11">
+      <c r="Q42" s="9">
         <v>0.39350000000000002</v>
       </c>
-      <c r="R42" s="11">
+      <c r="R42" s="9">
         <v>13.116666666666699</v>
       </c>
-      <c r="S42" s="11">
+      <c r="S42" s="9">
         <v>60.825242718446603</v>
       </c>
-      <c r="T42" s="11">
+      <c r="T42" s="9">
         <v>20.883333333333301</v>
       </c>
-      <c r="U42" s="11">
+      <c r="U42" s="9">
         <v>13.116666666666699</v>
       </c>
     </row>
@@ -17433,46 +17435,46 @@
       <c r="G43">
         <v>25</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="9">
         <v>3.8</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I43" s="9">
         <v>1.24</v>
       </c>
       <c r="J43">
         <v>63</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K43" s="9">
         <v>5.04</v>
       </c>
       <c r="L43">
         <v>100</v>
       </c>
-      <c r="M43" s="11">
+      <c r="M43" s="9">
         <v>3.8</v>
       </c>
-      <c r="N43" s="11">
+      <c r="N43" s="9">
         <v>6.3</v>
       </c>
-      <c r="O43" s="11">
+      <c r="O43" s="9">
         <v>0.504</v>
       </c>
-      <c r="P43" s="11">
+      <c r="P43" s="9">
         <v>16.8</v>
       </c>
-      <c r="Q43" s="11">
+      <c r="Q43" s="9">
         <v>0.38</v>
       </c>
-      <c r="R43" s="11">
+      <c r="R43" s="9">
         <v>12.6666666666667</v>
       </c>
-      <c r="S43" s="11">
+      <c r="S43" s="9">
         <v>80</v>
       </c>
-      <c r="T43" s="11">
+      <c r="T43" s="9">
         <v>16.8</v>
       </c>
-      <c r="U43" s="11">
+      <c r="U43" s="9">
         <v>12.6666666666667</v>
       </c>
     </row>
@@ -17498,46 +17500,46 @@
       <c r="G44">
         <v>55</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="9">
         <v>1.8</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="9">
         <v>1.355</v>
       </c>
       <c r="J44">
         <v>82</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K44" s="9">
         <v>3.1549999999999998</v>
       </c>
       <c r="L44">
         <v>70</v>
       </c>
-      <c r="M44" s="11">
+      <c r="M44" s="9">
         <v>3.8571428571428599</v>
       </c>
-      <c r="N44" s="11">
+      <c r="N44" s="9">
         <v>11.714285714285699</v>
       </c>
-      <c r="O44" s="11">
+      <c r="O44" s="9">
         <v>0.45071428571428601</v>
       </c>
-      <c r="P44" s="11">
+      <c r="P44" s="9">
         <v>10.516666666666699</v>
       </c>
-      <c r="Q44" s="11">
+      <c r="Q44" s="9">
         <v>0.25714285714285701</v>
       </c>
-      <c r="R44" s="11">
+      <c r="R44" s="9">
         <v>6</v>
       </c>
-      <c r="S44" s="11">
+      <c r="S44" s="9">
         <v>38.475609756097597</v>
       </c>
-      <c r="T44" s="11">
+      <c r="T44" s="9">
         <v>15.023809523809501</v>
       </c>
-      <c r="U44" s="11">
+      <c r="U44" s="9">
         <v>8.5714285714285605</v>
       </c>
     </row>
@@ -17563,46 +17565,46 @@
       <c r="G45">
         <v>25</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="9">
         <v>0.86</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45" s="9">
         <v>0.42</v>
       </c>
       <c r="J45">
         <v>47</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K45" s="9">
         <v>1.28</v>
       </c>
       <c r="L45">
         <v>80</v>
       </c>
-      <c r="M45" s="11">
+      <c r="M45" s="9">
         <v>2.75</v>
       </c>
-      <c r="N45" s="11">
+      <c r="N45" s="9">
         <v>5.875</v>
       </c>
-      <c r="O45" s="11">
+      <c r="O45" s="9">
         <v>0.16</v>
       </c>
-      <c r="P45" s="11">
+      <c r="P45" s="9">
         <v>4.2666666666666702</v>
       </c>
-      <c r="Q45" s="11">
+      <c r="Q45" s="9">
         <v>0.1075</v>
       </c>
-      <c r="R45" s="11">
+      <c r="R45" s="9">
         <v>2.8666666666666698</v>
       </c>
-      <c r="S45" s="11">
+      <c r="S45" s="9">
         <v>27.2340425531915</v>
       </c>
-      <c r="T45" s="11">
+      <c r="T45" s="9">
         <v>5.3333333333333304</v>
       </c>
-      <c r="U45" s="11">
+      <c r="U45" s="9">
         <v>3.5833333333333299</v>
       </c>
     </row>
@@ -17628,46 +17630,46 @@
       <c r="G46">
         <v>54</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="9">
         <v>3.8220000000000001</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="9">
         <v>2.8849999999999998</v>
       </c>
       <c r="J46">
         <v>87</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K46" s="9">
         <v>6.7069999999999999</v>
       </c>
       <c r="L46">
         <v>90</v>
       </c>
-      <c r="M46" s="11">
+      <c r="M46" s="9">
         <v>3.6666666666666701</v>
       </c>
-      <c r="N46" s="11">
+      <c r="N46" s="9">
         <v>9.6666666666666696</v>
       </c>
-      <c r="O46" s="11">
+      <c r="O46" s="9">
         <v>0.74522222222222201</v>
       </c>
-      <c r="P46" s="11">
+      <c r="P46" s="9">
         <v>22.356666666666701</v>
       </c>
-      <c r="Q46" s="11">
+      <c r="Q46" s="9">
         <v>0.42466666666666703</v>
       </c>
-      <c r="R46" s="11">
+      <c r="R46" s="9">
         <v>12.74</v>
       </c>
-      <c r="S46" s="11">
+      <c r="S46" s="9">
         <v>77.091954022988503</v>
       </c>
-      <c r="T46" s="11">
+      <c r="T46" s="9">
         <v>24.840740740740699</v>
       </c>
-      <c r="U46" s="11">
+      <c r="U46" s="9">
         <v>14.1555555555555</v>
       </c>
     </row>
@@ -17693,46 +17695,46 @@
       <c r="G47">
         <v>7</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="9">
         <v>1.3</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47" s="9">
         <v>0.21</v>
       </c>
       <c r="J47">
         <v>23</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K47" s="9">
         <v>1.51</v>
       </c>
       <c r="L47">
         <v>70</v>
       </c>
-      <c r="M47" s="11">
+      <c r="M47" s="9">
         <v>2.28571428571429</v>
       </c>
-      <c r="N47" s="11">
+      <c r="N47" s="9">
         <v>3.28571428571429</v>
       </c>
-      <c r="O47" s="11">
+      <c r="O47" s="9">
         <v>0.215714285714286</v>
       </c>
-      <c r="P47" s="11">
+      <c r="P47" s="9">
         <v>5.0333333333333297</v>
       </c>
-      <c r="Q47" s="11">
+      <c r="Q47" s="9">
         <v>0.185714285714286</v>
       </c>
-      <c r="R47" s="11">
+      <c r="R47" s="9">
         <v>4.3333333333333304</v>
       </c>
-      <c r="S47" s="11">
+      <c r="S47" s="9">
         <v>65.652173913043498</v>
       </c>
-      <c r="T47" s="11">
+      <c r="T47" s="9">
         <v>7.19047619047618</v>
       </c>
-      <c r="U47" s="11">
+      <c r="U47" s="9">
         <v>6.19047619047618</v>
       </c>
     </row>
@@ -17758,46 +17760,46 @@
       <c r="G48">
         <v>26</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="9">
         <v>3.125</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48" s="9">
         <v>0.77500000000000002</v>
       </c>
       <c r="J48">
         <v>76</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K48" s="9">
         <v>3.9</v>
       </c>
       <c r="L48">
         <v>90</v>
       </c>
-      <c r="M48" s="11">
+      <c r="M48" s="9">
         <v>5.5555555555555598</v>
       </c>
-      <c r="N48" s="11">
+      <c r="N48" s="9">
         <v>8.4444444444444393</v>
       </c>
-      <c r="O48" s="11">
+      <c r="O48" s="9">
         <v>0.43333333333333302</v>
       </c>
-      <c r="P48" s="11">
+      <c r="P48" s="9">
         <v>13</v>
       </c>
-      <c r="Q48" s="11">
+      <c r="Q48" s="9">
         <v>0.34722222222222199</v>
       </c>
-      <c r="R48" s="11">
+      <c r="R48" s="9">
         <v>10.4166666666667</v>
       </c>
-      <c r="S48" s="11">
+      <c r="S48" s="9">
         <v>51.315789473684198</v>
       </c>
-      <c r="T48" s="11">
+      <c r="T48" s="9">
         <v>14.4444444444444</v>
       </c>
-      <c r="U48" s="11">
+      <c r="U48" s="9">
         <v>11.574074074074099</v>
       </c>
     </row>
@@ -17823,46 +17825,46 @@
       <c r="G49">
         <v>33</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H49" s="9">
         <v>4.1980000000000004</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I49" s="9">
         <v>1.66</v>
       </c>
       <c r="J49">
         <v>75</v>
       </c>
-      <c r="K49" s="11">
+      <c r="K49" s="9">
         <v>5.8579999999999997</v>
       </c>
       <c r="L49">
         <v>80</v>
       </c>
-      <c r="M49" s="11">
+      <c r="M49" s="9">
         <v>5.25</v>
       </c>
-      <c r="N49" s="11">
+      <c r="N49" s="9">
         <v>9.375</v>
       </c>
-      <c r="O49" s="11">
+      <c r="O49" s="9">
         <v>0.73224999999999996</v>
       </c>
-      <c r="P49" s="11">
+      <c r="P49" s="9">
         <v>19.526666666666699</v>
       </c>
-      <c r="Q49" s="11">
+      <c r="Q49" s="9">
         <v>0.52475000000000005</v>
       </c>
-      <c r="R49" s="11">
+      <c r="R49" s="9">
         <v>13.9933333333333</v>
       </c>
-      <c r="S49" s="11">
+      <c r="S49" s="9">
         <v>78.106666666666698</v>
       </c>
-      <c r="T49" s="11">
+      <c r="T49" s="9">
         <v>24.408333333333299</v>
       </c>
-      <c r="U49" s="11">
+      <c r="U49" s="9">
         <v>17.4916666666666</v>
       </c>
     </row>
@@ -17888,46 +17890,46 @@
       <c r="G50">
         <v>38</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="9">
         <v>3.0750000000000002</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I50" s="9">
         <v>1.35</v>
       </c>
       <c r="J50">
         <v>91</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K50" s="9">
         <v>4.4249999999999998</v>
       </c>
       <c r="L50">
         <v>70</v>
       </c>
-      <c r="M50" s="11">
+      <c r="M50" s="9">
         <v>7.5714285714285703</v>
       </c>
-      <c r="N50" s="11">
+      <c r="N50" s="9">
         <v>13</v>
       </c>
-      <c r="O50" s="11">
+      <c r="O50" s="9">
         <v>0.63214285714285701</v>
       </c>
-      <c r="P50" s="11">
+      <c r="P50" s="9">
         <v>14.75</v>
       </c>
-      <c r="Q50" s="11">
+      <c r="Q50" s="9">
         <v>0.439285714285714</v>
       </c>
-      <c r="R50" s="11">
+      <c r="R50" s="9">
         <v>10.25</v>
       </c>
-      <c r="S50" s="11">
+      <c r="S50" s="9">
         <v>48.626373626373599</v>
       </c>
-      <c r="T50" s="11">
+      <c r="T50" s="9">
         <v>21.071428571428601</v>
       </c>
-      <c r="U50" s="11">
+      <c r="U50" s="9">
         <v>14.6428571428571</v>
       </c>
     </row>
@@ -17953,46 +17955,46 @@
       <c r="G51">
         <v>48</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51" s="9">
         <v>3.98</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I51" s="9">
         <v>1.498</v>
       </c>
       <c r="J51">
         <v>91</v>
       </c>
-      <c r="K51" s="11">
+      <c r="K51" s="9">
         <v>5.4779999999999998</v>
       </c>
       <c r="L51">
         <v>70</v>
       </c>
-      <c r="M51" s="11">
+      <c r="M51" s="9">
         <v>6.1428571428571397</v>
       </c>
-      <c r="N51" s="11">
+      <c r="N51" s="9">
         <v>13</v>
       </c>
-      <c r="O51" s="11">
+      <c r="O51" s="9">
         <v>0.78257142857142903</v>
       </c>
-      <c r="P51" s="11">
+      <c r="P51" s="9">
         <v>18.260000000000002</v>
       </c>
-      <c r="Q51" s="11">
+      <c r="Q51" s="9">
         <v>0.56857142857142895</v>
       </c>
-      <c r="R51" s="11">
+      <c r="R51" s="9">
         <v>13.266666666666699</v>
       </c>
-      <c r="S51" s="11">
+      <c r="S51" s="9">
         <v>60.197802197802197</v>
       </c>
-      <c r="T51" s="11">
+      <c r="T51" s="9">
         <v>26.0857142857143</v>
       </c>
-      <c r="U51" s="11">
+      <c r="U51" s="9">
         <v>18.952380952380899</v>
       </c>
     </row>
@@ -18018,46 +18020,46 @@
       <c r="G52">
         <v>43</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52" s="9">
         <v>3.06</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I52" s="9">
         <v>1.32</v>
       </c>
       <c r="J52">
         <v>84</v>
       </c>
-      <c r="K52" s="11">
+      <c r="K52" s="9">
         <v>4.38</v>
       </c>
       <c r="L52">
         <v>60</v>
       </c>
-      <c r="M52" s="11">
+      <c r="M52" s="9">
         <v>6.8333333333333304</v>
       </c>
-      <c r="N52" s="11">
+      <c r="N52" s="9">
         <v>14</v>
       </c>
-      <c r="O52" s="11">
+      <c r="O52" s="9">
         <v>0.73</v>
       </c>
-      <c r="P52" s="11">
+      <c r="P52" s="9">
         <v>14.6</v>
       </c>
-      <c r="Q52" s="11">
+      <c r="Q52" s="9">
         <v>0.51</v>
       </c>
-      <c r="R52" s="11">
+      <c r="R52" s="9">
         <v>10.199999999999999</v>
       </c>
-      <c r="S52" s="11">
+      <c r="S52" s="9">
         <v>52.142857142857103</v>
       </c>
-      <c r="T52" s="11">
+      <c r="T52" s="9">
         <v>24.3333333333333</v>
       </c>
-      <c r="U52" s="11">
+      <c r="U52" s="9">
         <v>17</v>
       </c>
     </row>
@@ -18083,46 +18085,46 @@
       <c r="G53">
         <v>45</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H53" s="9">
         <v>3.8879999999999999</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I53" s="9">
         <v>1.0249999999999999</v>
       </c>
       <c r="J53">
         <v>103</v>
       </c>
-      <c r="K53" s="11">
+      <c r="K53" s="9">
         <v>4.9130000000000003</v>
       </c>
       <c r="L53">
         <v>80</v>
       </c>
-      <c r="M53" s="11">
+      <c r="M53" s="9">
         <v>7.25</v>
       </c>
-      <c r="N53" s="11">
+      <c r="N53" s="9">
         <v>12.875</v>
       </c>
-      <c r="O53" s="11">
+      <c r="O53" s="9">
         <v>0.61412500000000003</v>
       </c>
-      <c r="P53" s="11">
+      <c r="P53" s="9">
         <v>16.376666666666701</v>
       </c>
-      <c r="Q53" s="11">
+      <c r="Q53" s="9">
         <v>0.48599999999999999</v>
       </c>
-      <c r="R53" s="11">
+      <c r="R53" s="9">
         <v>12.96</v>
       </c>
-      <c r="S53" s="11">
+      <c r="S53" s="9">
         <v>47.699029126213603</v>
       </c>
-      <c r="T53" s="11">
+      <c r="T53" s="9">
         <v>20.470833333333299</v>
       </c>
-      <c r="U53" s="11">
+      <c r="U53" s="9">
         <v>16.2</v>
       </c>
     </row>
@@ -18148,46 +18150,46 @@
       <c r="G54">
         <v>35</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H54" s="9">
         <v>2.77</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I54" s="9">
         <v>0.97</v>
       </c>
       <c r="J54">
         <v>94</v>
       </c>
-      <c r="K54" s="11">
+      <c r="K54" s="9">
         <v>3.74</v>
       </c>
       <c r="L54">
         <v>70</v>
       </c>
-      <c r="M54" s="11">
+      <c r="M54" s="9">
         <v>8.4285714285714306</v>
       </c>
-      <c r="N54" s="11">
+      <c r="N54" s="9">
         <v>13.4285714285714</v>
       </c>
-      <c r="O54" s="11">
+      <c r="O54" s="9">
         <v>0.53428571428571403</v>
       </c>
-      <c r="P54" s="11">
+      <c r="P54" s="9">
         <v>12.466666666666701</v>
       </c>
-      <c r="Q54" s="11">
+      <c r="Q54" s="9">
         <v>0.39571428571428602</v>
       </c>
-      <c r="R54" s="11">
+      <c r="R54" s="9">
         <v>9.2333333333333307</v>
       </c>
-      <c r="S54" s="11">
+      <c r="S54" s="9">
         <v>39.787234042553202</v>
       </c>
-      <c r="T54" s="11">
+      <c r="T54" s="9">
         <v>17.8095238095238</v>
       </c>
-      <c r="U54" s="11">
+      <c r="U54" s="9">
         <v>13.1904761904762</v>
       </c>
     </row>
@@ -18213,46 +18215,46 @@
       <c r="G55">
         <v>60</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H55" s="9">
         <v>7.37</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I55" s="9">
         <v>1.2050000000000001</v>
       </c>
       <c r="J55">
         <v>154</v>
       </c>
-      <c r="K55" s="11">
+      <c r="K55" s="9">
         <v>8.5749999999999993</v>
       </c>
       <c r="L55">
         <v>70</v>
       </c>
-      <c r="M55" s="11">
+      <c r="M55" s="9">
         <v>13.4285714285714</v>
       </c>
-      <c r="N55" s="11">
+      <c r="N55" s="9">
         <v>22</v>
       </c>
-      <c r="O55" s="11">
+      <c r="O55" s="9">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P55" s="11">
+      <c r="P55" s="9">
         <v>28.5833333333333</v>
       </c>
-      <c r="Q55" s="11">
+      <c r="Q55" s="9">
         <v>1.05285714285714</v>
       </c>
-      <c r="R55" s="11">
+      <c r="R55" s="9">
         <v>24.566666666666698</v>
       </c>
-      <c r="S55" s="11">
+      <c r="S55" s="9">
         <v>55.681818181818201</v>
       </c>
-      <c r="T55" s="11">
+      <c r="T55" s="9">
         <v>40.8333333333333</v>
       </c>
-      <c r="U55" s="11">
+      <c r="U55" s="9">
         <v>35.095238095238102</v>
       </c>
     </row>
@@ -18278,46 +18280,46 @@
       <c r="G56">
         <v>57</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H56" s="9">
         <v>6.73</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I56" s="9">
         <v>1.64</v>
       </c>
       <c r="J56">
         <v>128</v>
       </c>
-      <c r="K56" s="11">
+      <c r="K56" s="9">
         <v>8.3699999999999992</v>
       </c>
       <c r="L56">
         <v>70</v>
       </c>
-      <c r="M56" s="11">
+      <c r="M56" s="9">
         <v>10.1428571428571</v>
       </c>
-      <c r="N56" s="11">
+      <c r="N56" s="9">
         <v>18.285714285714299</v>
       </c>
-      <c r="O56" s="11">
+      <c r="O56" s="9">
         <v>1.1957142857142899</v>
       </c>
-      <c r="P56" s="11">
+      <c r="P56" s="9">
         <v>27.9</v>
       </c>
-      <c r="Q56" s="11">
+      <c r="Q56" s="9">
         <v>0.96142857142857197</v>
       </c>
-      <c r="R56" s="11">
+      <c r="R56" s="9">
         <v>22.433333333333302</v>
       </c>
-      <c r="S56" s="11">
+      <c r="S56" s="9">
         <v>65.390625</v>
       </c>
-      <c r="T56" s="11">
+      <c r="T56" s="9">
         <v>39.857142857142797</v>
       </c>
-      <c r="U56" s="11">
+      <c r="U56" s="9">
         <v>32.047619047619001</v>
       </c>
     </row>
@@ -18343,46 +18345,46 @@
       <c r="G57">
         <v>25</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H57" s="9">
         <v>4.41</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I57" s="9">
         <v>0.56999999999999995</v>
       </c>
       <c r="J57">
         <v>72</v>
       </c>
-      <c r="K57" s="11">
+      <c r="K57" s="9">
         <v>4.9800000000000004</v>
       </c>
       <c r="L57">
         <v>80</v>
       </c>
-      <c r="M57" s="11">
+      <c r="M57" s="9">
         <v>5.875</v>
       </c>
-      <c r="N57" s="11">
+      <c r="N57" s="9">
         <v>9</v>
       </c>
-      <c r="O57" s="11">
+      <c r="O57" s="9">
         <v>0.62250000000000005</v>
       </c>
-      <c r="P57" s="11">
+      <c r="P57" s="9">
         <v>16.600000000000001</v>
       </c>
-      <c r="Q57" s="11">
+      <c r="Q57" s="9">
         <v>0.55125000000000002</v>
       </c>
-      <c r="R57" s="11">
+      <c r="R57" s="9">
         <v>14.7</v>
       </c>
-      <c r="S57" s="11">
+      <c r="S57" s="9">
         <v>69.1666666666667</v>
       </c>
-      <c r="T57" s="11">
+      <c r="T57" s="9">
         <v>20.75</v>
       </c>
-      <c r="U57" s="11">
+      <c r="U57" s="9">
         <v>18.375</v>
       </c>
     </row>
@@ -18408,46 +18410,46 @@
       <c r="G58">
         <v>27</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H58" s="9">
         <v>2.3849999999999998</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I58" s="9">
         <v>0.92</v>
       </c>
       <c r="J58">
         <v>57</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K58" s="9">
         <v>3.3050000000000002</v>
       </c>
       <c r="L58">
         <v>80</v>
       </c>
-      <c r="M58" s="11">
+      <c r="M58" s="9">
         <v>3.75</v>
       </c>
-      <c r="N58" s="11">
+      <c r="N58" s="9">
         <v>7.125</v>
       </c>
-      <c r="O58" s="11">
+      <c r="O58" s="9">
         <v>0.41312500000000002</v>
       </c>
-      <c r="P58" s="11">
+      <c r="P58" s="9">
         <v>11.016666666666699</v>
       </c>
-      <c r="Q58" s="11">
+      <c r="Q58" s="9">
         <v>0.29812499999999997</v>
       </c>
-      <c r="R58" s="11">
+      <c r="R58" s="9">
         <v>7.95</v>
       </c>
-      <c r="S58" s="11">
+      <c r="S58" s="9">
         <v>57.982456140350898</v>
       </c>
-      <c r="T58" s="11">
+      <c r="T58" s="9">
         <v>13.7708333333333</v>
       </c>
-      <c r="U58" s="11">
+      <c r="U58" s="9">
         <v>9.9374999999999893</v>
       </c>
     </row>
@@ -18473,46 +18475,46 @@
       <c r="G59">
         <v>38</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H59" s="9">
         <v>5.63</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I59" s="9">
         <v>1.32</v>
       </c>
       <c r="J59">
         <v>116</v>
       </c>
-      <c r="K59" s="11">
+      <c r="K59" s="9">
         <v>6.95</v>
       </c>
       <c r="L59">
         <v>80</v>
       </c>
-      <c r="M59" s="11">
+      <c r="M59" s="9">
         <v>9.75</v>
       </c>
-      <c r="N59" s="11">
+      <c r="N59" s="9">
         <v>14.5</v>
       </c>
-      <c r="O59" s="11">
+      <c r="O59" s="9">
         <v>0.86875000000000002</v>
       </c>
-      <c r="P59" s="11">
+      <c r="P59" s="9">
         <v>23.1666666666667</v>
       </c>
-      <c r="Q59" s="11">
+      <c r="Q59" s="9">
         <v>0.70374999999999999</v>
       </c>
-      <c r="R59" s="11">
+      <c r="R59" s="9">
         <v>18.766666666666701</v>
       </c>
-      <c r="S59" s="11">
+      <c r="S59" s="9">
         <v>59.913793103448299</v>
       </c>
-      <c r="T59" s="11">
+      <c r="T59" s="9">
         <v>28.9583333333333</v>
       </c>
-      <c r="U59" s="11">
+      <c r="U59" s="9">
         <v>23.4583333333333</v>
       </c>
     </row>
@@ -18538,46 +18540,46 @@
       <c r="G60">
         <v>51</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H60" s="9">
         <v>4.03</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I60" s="9">
         <v>1.61</v>
       </c>
       <c r="J60">
         <v>86</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K60" s="9">
         <v>5.64</v>
       </c>
       <c r="L60">
         <v>70</v>
       </c>
-      <c r="M60" s="11">
+      <c r="M60" s="9">
         <v>5</v>
       </c>
-      <c r="N60" s="11">
+      <c r="N60" s="9">
         <v>12.285714285714301</v>
       </c>
-      <c r="O60" s="11">
+      <c r="O60" s="9">
         <v>0.80571428571428605</v>
       </c>
-      <c r="P60" s="11">
+      <c r="P60" s="9">
         <v>18.8</v>
       </c>
-      <c r="Q60" s="11">
+      <c r="Q60" s="9">
         <v>0.57571428571428596</v>
       </c>
-      <c r="R60" s="11">
+      <c r="R60" s="9">
         <v>13.4333333333333</v>
       </c>
-      <c r="S60" s="11">
+      <c r="S60" s="9">
         <v>65.581395348837205</v>
       </c>
-      <c r="T60" s="11">
+      <c r="T60" s="9">
         <v>26.857142857142801</v>
       </c>
-      <c r="U60" s="11">
+      <c r="U60" s="9">
         <v>19.1904761904762</v>
       </c>
     </row>
@@ -18603,46 +18605,46 @@
       <c r="G61">
         <v>24</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H61" s="9">
         <v>2.4249999999999998</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I61" s="9">
         <v>0.72499999999999998</v>
       </c>
       <c r="J61">
         <v>56</v>
       </c>
-      <c r="K61" s="11">
+      <c r="K61" s="9">
         <v>3.15</v>
       </c>
       <c r="L61">
         <v>80</v>
       </c>
-      <c r="M61" s="11">
-        <v>4</v>
-      </c>
-      <c r="N61" s="11">
+      <c r="M61" s="9">
+        <v>4</v>
+      </c>
+      <c r="N61" s="9">
         <v>7</v>
       </c>
-      <c r="O61" s="11">
+      <c r="O61" s="9">
         <v>0.39374999999999999</v>
       </c>
-      <c r="P61" s="11">
+      <c r="P61" s="9">
         <v>10.5</v>
       </c>
-      <c r="Q61" s="11">
+      <c r="Q61" s="9">
         <v>0.30312499999999998</v>
       </c>
-      <c r="R61" s="11">
+      <c r="R61" s="9">
         <v>8.0833333333333304</v>
       </c>
-      <c r="S61" s="11">
+      <c r="S61" s="9">
         <v>56.25</v>
       </c>
-      <c r="T61" s="11">
+      <c r="T61" s="9">
         <v>13.125</v>
       </c>
-      <c r="U61" s="11">
+      <c r="U61" s="9">
         <v>10.1041666666667</v>
       </c>
     </row>
@@ -18668,46 +18670,46 @@
       <c r="G62">
         <v>30</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H62" s="9">
         <v>1.2609999999999999</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I62" s="9">
         <v>0.51500000000000001</v>
       </c>
       <c r="J62">
         <v>51</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K62" s="9">
         <v>1.776</v>
       </c>
       <c r="L62">
         <v>70</v>
       </c>
-      <c r="M62" s="11">
+      <c r="M62" s="9">
         <v>3</v>
       </c>
-      <c r="N62" s="11">
+      <c r="N62" s="9">
         <v>7.28571428571429</v>
       </c>
-      <c r="O62" s="11">
+      <c r="O62" s="9">
         <v>0.253714285714286</v>
       </c>
-      <c r="P62" s="11">
+      <c r="P62" s="9">
         <v>5.92</v>
       </c>
-      <c r="Q62" s="11">
+      <c r="Q62" s="9">
         <v>0.18014285714285699</v>
       </c>
-      <c r="R62" s="11">
+      <c r="R62" s="9">
         <v>4.2033333333333296</v>
       </c>
-      <c r="S62" s="11">
+      <c r="S62" s="9">
         <v>34.823529411764703</v>
       </c>
-      <c r="T62" s="11">
+      <c r="T62" s="9">
         <v>8.4571428571428502</v>
       </c>
-      <c r="U62" s="11">
+      <c r="U62" s="9">
         <v>6.0047619047619003</v>
       </c>
     </row>
@@ -18733,46 +18735,46 @@
       <c r="G63">
         <v>45</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H63" s="9">
         <v>3.02</v>
       </c>
-      <c r="I63" s="11">
+      <c r="I63" s="9">
         <v>1.34</v>
       </c>
       <c r="J63">
         <v>94</v>
       </c>
-      <c r="K63" s="11">
+      <c r="K63" s="9">
         <v>4.3600000000000003</v>
       </c>
       <c r="L63">
         <v>90</v>
       </c>
-      <c r="M63" s="11">
+      <c r="M63" s="9">
         <v>5.4444444444444402</v>
       </c>
-      <c r="N63" s="11">
+      <c r="N63" s="9">
         <v>10.4444444444444</v>
       </c>
-      <c r="O63" s="11">
+      <c r="O63" s="9">
         <v>0.48444444444444401</v>
       </c>
-      <c r="P63" s="11">
+      <c r="P63" s="9">
         <v>14.533333333333299</v>
       </c>
-      <c r="Q63" s="11">
+      <c r="Q63" s="9">
         <v>0.335555555555556</v>
       </c>
-      <c r="R63" s="11">
+      <c r="R63" s="9">
         <v>10.0666666666667</v>
       </c>
-      <c r="S63" s="11">
+      <c r="S63" s="9">
         <v>46.3829787234043</v>
       </c>
-      <c r="T63" s="11">
+      <c r="T63" s="9">
         <v>16.148148148148099</v>
       </c>
-      <c r="U63" s="11">
+      <c r="U63" s="9">
         <v>11.185185185185199</v>
       </c>
     </row>
@@ -18798,46 +18800,46 @@
       <c r="G64">
         <v>18</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H64" s="9">
         <v>2.8250000000000002</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I64" s="9">
         <v>0.23799999999999999</v>
       </c>
       <c r="J64">
         <v>55</v>
       </c>
-      <c r="K64" s="11">
+      <c r="K64" s="9">
         <v>3.0630000000000002</v>
       </c>
       <c r="L64">
         <v>80</v>
       </c>
-      <c r="M64" s="11">
+      <c r="M64" s="9">
         <v>4.625</v>
       </c>
-      <c r="N64" s="11">
+      <c r="N64" s="9">
         <v>6.875</v>
       </c>
-      <c r="O64" s="11">
+      <c r="O64" s="9">
         <v>0.38287500000000002</v>
       </c>
-      <c r="P64" s="11">
+      <c r="P64" s="9">
         <v>10.210000000000001</v>
       </c>
-      <c r="Q64" s="11">
+      <c r="Q64" s="9">
         <v>0.35312500000000002</v>
       </c>
-      <c r="R64" s="11">
+      <c r="R64" s="9">
         <v>9.4166666666666696</v>
       </c>
-      <c r="S64" s="11">
+      <c r="S64" s="9">
         <v>55.690909090909102</v>
       </c>
-      <c r="T64" s="11">
+      <c r="T64" s="9">
         <v>12.762499999999999</v>
       </c>
-      <c r="U64" s="11">
+      <c r="U64" s="9">
         <v>11.7708333333333</v>
       </c>
     </row>
@@ -18863,46 +18865,46 @@
       <c r="G65">
         <v>32</v>
       </c>
-      <c r="H65" s="11">
+      <c r="H65" s="9">
         <v>2.3050000000000002</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I65" s="9">
         <v>0.90500000000000003</v>
       </c>
       <c r="J65">
         <v>59</v>
       </c>
-      <c r="K65" s="11">
+      <c r="K65" s="9">
         <v>3.21</v>
       </c>
       <c r="L65">
         <v>80</v>
       </c>
-      <c r="M65" s="11">
+      <c r="M65" s="9">
         <v>3.375</v>
       </c>
-      <c r="N65" s="11">
+      <c r="N65" s="9">
         <v>7.375</v>
       </c>
-      <c r="O65" s="11">
+      <c r="O65" s="9">
         <v>0.40125</v>
       </c>
-      <c r="P65" s="11">
+      <c r="P65" s="9">
         <v>10.7</v>
       </c>
-      <c r="Q65" s="11">
+      <c r="Q65" s="9">
         <v>0.28812500000000002</v>
       </c>
-      <c r="R65" s="11">
+      <c r="R65" s="9">
         <v>7.68333333333333</v>
       </c>
-      <c r="S65" s="11">
+      <c r="S65" s="9">
         <v>54.406779661016998</v>
       </c>
-      <c r="T65" s="11">
+      <c r="T65" s="9">
         <v>13.375</v>
       </c>
-      <c r="U65" s="11">
+      <c r="U65" s="9">
         <v>9.6041666666666607</v>
       </c>
     </row>
@@ -18928,46 +18930,46 @@
       <c r="G66">
         <v>55</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H66" s="9">
         <v>9.39</v>
       </c>
-      <c r="I66" s="11">
+      <c r="I66" s="9">
         <v>1.92</v>
       </c>
       <c r="J66">
         <v>175</v>
       </c>
-      <c r="K66" s="11">
+      <c r="K66" s="9">
         <v>11.31</v>
       </c>
       <c r="L66">
         <v>70</v>
       </c>
-      <c r="M66" s="11">
+      <c r="M66" s="9">
         <v>17.1428571428571</v>
       </c>
-      <c r="N66" s="11">
+      <c r="N66" s="9">
         <v>25</v>
       </c>
-      <c r="O66" s="11">
+      <c r="O66" s="9">
         <v>1.6157142857142901</v>
       </c>
-      <c r="P66" s="11">
+      <c r="P66" s="9">
         <v>37.700000000000003</v>
       </c>
-      <c r="Q66" s="11">
+      <c r="Q66" s="9">
         <v>1.3414285714285701</v>
       </c>
-      <c r="R66" s="11">
+      <c r="R66" s="9">
         <v>31.3</v>
       </c>
-      <c r="S66" s="11">
+      <c r="S66" s="9">
         <v>64.628571428571405</v>
       </c>
-      <c r="T66" s="11">
+      <c r="T66" s="9">
         <v>53.857142857142797</v>
       </c>
-      <c r="U66" s="11">
+      <c r="U66" s="9">
         <v>44.714285714285701</v>
       </c>
     </row>
@@ -18993,46 +18995,46 @@
       <c r="G67">
         <v>27</v>
       </c>
-      <c r="H67" s="11">
+      <c r="H67" s="9">
         <v>3.1</v>
       </c>
-      <c r="I67" s="11">
+      <c r="I67" s="9">
         <v>1.1879999999999999</v>
       </c>
       <c r="J67">
         <v>64</v>
       </c>
-      <c r="K67" s="11">
+      <c r="K67" s="9">
         <v>4.2880000000000003</v>
       </c>
       <c r="L67">
         <v>70</v>
       </c>
-      <c r="M67" s="11">
+      <c r="M67" s="9">
         <v>5.28571428571429</v>
       </c>
-      <c r="N67" s="11">
+      <c r="N67" s="9">
         <v>9.1428571428571406</v>
       </c>
-      <c r="O67" s="11">
+      <c r="O67" s="9">
         <v>0.61257142857142899</v>
       </c>
-      <c r="P67" s="11">
+      <c r="P67" s="9">
         <v>14.293333333333299</v>
       </c>
-      <c r="Q67" s="11">
+      <c r="Q67" s="9">
         <v>0.442857142857143</v>
       </c>
-      <c r="R67" s="11">
+      <c r="R67" s="9">
         <v>10.3333333333333</v>
       </c>
-      <c r="S67" s="11">
+      <c r="S67" s="9">
         <v>67</v>
       </c>
-      <c r="T67" s="11">
+      <c r="T67" s="9">
         <v>20.4190476190476</v>
       </c>
-      <c r="U67" s="11">
+      <c r="U67" s="9">
         <v>14.761904761904701</v>
       </c>
     </row>
@@ -19058,46 +19060,46 @@
       <c r="G68">
         <v>33</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H68" s="9">
         <v>3.1</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I68" s="9">
         <v>1.385</v>
       </c>
       <c r="J68">
         <v>53</v>
       </c>
-      <c r="K68" s="11">
+      <c r="K68" s="9">
         <v>4.4850000000000003</v>
       </c>
       <c r="L68">
         <v>90</v>
       </c>
-      <c r="M68" s="11">
+      <c r="M68" s="9">
         <v>2.2222222222222201</v>
       </c>
-      <c r="N68" s="11">
+      <c r="N68" s="9">
         <v>5.8888888888888902</v>
       </c>
-      <c r="O68" s="11">
+      <c r="O68" s="9">
         <v>0.49833333333333302</v>
       </c>
-      <c r="P68" s="11">
+      <c r="P68" s="9">
         <v>14.95</v>
       </c>
-      <c r="Q68" s="11">
+      <c r="Q68" s="9">
         <v>0.344444444444444</v>
       </c>
-      <c r="R68" s="11">
+      <c r="R68" s="9">
         <v>10.3333333333333</v>
       </c>
-      <c r="S68" s="11">
+      <c r="S68" s="9">
         <v>84.622641509434004</v>
       </c>
-      <c r="T68" s="11">
+      <c r="T68" s="9">
         <v>16.6111111111111</v>
       </c>
-      <c r="U68" s="11">
+      <c r="U68" s="9">
         <v>11.4814814814815</v>
       </c>
     </row>
@@ -19123,46 +19125,46 @@
       <c r="G69">
         <v>57</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H69" s="9">
         <v>2.585</v>
       </c>
-      <c r="I69" s="11">
+      <c r="I69" s="9">
         <v>1.6779999999999999</v>
       </c>
       <c r="J69">
         <v>89</v>
       </c>
-      <c r="K69" s="11">
+      <c r="K69" s="9">
         <v>4.2629999999999999</v>
       </c>
       <c r="L69">
         <v>80</v>
       </c>
-      <c r="M69" s="11">
-        <v>4</v>
-      </c>
-      <c r="N69" s="11">
+      <c r="M69" s="9">
+        <v>4</v>
+      </c>
+      <c r="N69" s="9">
         <v>11.125</v>
       </c>
-      <c r="O69" s="11">
+      <c r="O69" s="9">
         <v>0.53287499999999999</v>
       </c>
-      <c r="P69" s="11">
+      <c r="P69" s="9">
         <v>14.21</v>
       </c>
-      <c r="Q69" s="11">
+      <c r="Q69" s="9">
         <v>0.323125</v>
       </c>
-      <c r="R69" s="11">
+      <c r="R69" s="9">
         <v>8.6166666666666707</v>
       </c>
-      <c r="S69" s="11">
+      <c r="S69" s="9">
         <v>47.898876404494402</v>
       </c>
-      <c r="T69" s="11">
+      <c r="T69" s="9">
         <v>17.762499999999999</v>
       </c>
-      <c r="U69" s="11">
+      <c r="U69" s="9">
         <v>10.7708333333333</v>
       </c>
     </row>
@@ -19188,46 +19190,46 @@
       <c r="G70">
         <v>34</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H70" s="9">
         <v>0.2</v>
       </c>
-      <c r="I70" s="11">
+      <c r="I70" s="9">
         <v>0.7</v>
       </c>
       <c r="J70">
         <v>40</v>
       </c>
-      <c r="K70" s="11">
+      <c r="K70" s="9">
         <v>0.9</v>
       </c>
       <c r="L70">
         <v>40</v>
       </c>
-      <c r="M70" s="11">
+      <c r="M70" s="9">
         <v>1.5</v>
       </c>
-      <c r="N70" s="11">
+      <c r="N70" s="9">
         <v>10</v>
       </c>
-      <c r="O70" s="11">
+      <c r="O70" s="9">
         <v>0.22500000000000001</v>
       </c>
-      <c r="P70" s="11">
+      <c r="P70" s="9">
         <v>3</v>
       </c>
-      <c r="Q70" s="11">
+      <c r="Q70" s="9">
         <v>0.05</v>
       </c>
-      <c r="R70" s="11">
+      <c r="R70" s="9">
         <v>0.66666666666666696</v>
       </c>
-      <c r="S70" s="11">
+      <c r="S70" s="9">
         <v>22.5</v>
       </c>
-      <c r="T70" s="11">
+      <c r="T70" s="9">
         <v>7.4999999999999902</v>
       </c>
-      <c r="U70" s="11">
+      <c r="U70" s="9">
         <v>1.6666666666666701</v>
       </c>
     </row>
@@ -19253,46 +19255,46 @@
       <c r="G71">
         <v>5</v>
       </c>
-      <c r="H71" s="11">
+      <c r="H71" s="9">
         <v>0.72</v>
       </c>
-      <c r="I71" s="11">
+      <c r="I71" s="9">
         <v>0.05</v>
       </c>
       <c r="J71">
         <v>17</v>
       </c>
-      <c r="K71" s="11">
+      <c r="K71" s="9">
         <v>0.77</v>
       </c>
       <c r="L71">
         <v>40</v>
       </c>
-      <c r="M71" s="11">
+      <c r="M71" s="9">
         <v>3</v>
       </c>
-      <c r="N71" s="11">
+      <c r="N71" s="9">
         <v>4.25</v>
       </c>
-      <c r="O71" s="11">
+      <c r="O71" s="9">
         <v>0.1925</v>
       </c>
-      <c r="P71" s="11">
+      <c r="P71" s="9">
         <v>2.56666666666667</v>
       </c>
-      <c r="Q71" s="11">
+      <c r="Q71" s="9">
         <v>0.18</v>
       </c>
-      <c r="R71" s="11">
+      <c r="R71" s="9">
         <v>2.4</v>
       </c>
-      <c r="S71" s="11">
+      <c r="S71" s="9">
         <v>45.294117647058798</v>
       </c>
-      <c r="T71" s="11">
+      <c r="T71" s="9">
         <v>6.4166666666666599</v>
       </c>
-      <c r="U71" s="11">
+      <c r="U71" s="9">
         <v>5.9999999999999902</v>
       </c>
     </row>
@@ -19318,46 +19320,46 @@
       <c r="G72">
         <v>56</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H72" s="9">
         <v>2.29</v>
       </c>
-      <c r="I72" s="11">
+      <c r="I72" s="9">
         <v>1.67</v>
       </c>
       <c r="J72">
         <v>97</v>
       </c>
-      <c r="K72" s="11">
+      <c r="K72" s="9">
         <v>3.96</v>
       </c>
       <c r="L72">
         <v>100</v>
       </c>
-      <c r="M72" s="11">
+      <c r="M72" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="N72" s="11">
+      <c r="N72" s="9">
         <v>9.6999999999999993</v>
       </c>
-      <c r="O72" s="11">
+      <c r="O72" s="9">
         <v>0.39600000000000002</v>
       </c>
-      <c r="P72" s="11">
+      <c r="P72" s="9">
         <v>13.2</v>
       </c>
-      <c r="Q72" s="11">
+      <c r="Q72" s="9">
         <v>0.22900000000000001</v>
       </c>
-      <c r="R72" s="11">
+      <c r="R72" s="9">
         <v>7.6333333333333302</v>
       </c>
-      <c r="S72" s="11">
+      <c r="S72" s="9">
         <v>40.824742268041199</v>
       </c>
-      <c r="T72" s="11">
+      <c r="T72" s="9">
         <v>13.2</v>
       </c>
-      <c r="U72" s="11">
+      <c r="U72" s="9">
         <v>7.6333333333333302</v>
       </c>
     </row>
@@ -19383,46 +19385,46 @@
       <c r="G73">
         <v>36</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H73" s="9">
         <v>3.93</v>
       </c>
-      <c r="I73" s="11">
+      <c r="I73" s="9">
         <v>0.80500000000000005</v>
       </c>
       <c r="J73">
         <v>86</v>
       </c>
-      <c r="K73" s="11">
+      <c r="K73" s="9">
         <v>4.7350000000000003</v>
       </c>
       <c r="L73">
         <v>90</v>
       </c>
-      <c r="M73" s="11">
+      <c r="M73" s="9">
         <v>5.5555555555555598</v>
       </c>
-      <c r="N73" s="11">
+      <c r="N73" s="9">
         <v>9.5555555555555607</v>
       </c>
-      <c r="O73" s="11">
+      <c r="O73" s="9">
         <v>0.52611111111111097</v>
       </c>
-      <c r="P73" s="11">
+      <c r="P73" s="9">
         <v>15.783333333333299</v>
       </c>
-      <c r="Q73" s="11">
+      <c r="Q73" s="9">
         <v>0.43666666666666698</v>
       </c>
-      <c r="R73" s="11">
+      <c r="R73" s="9">
         <v>13.1</v>
       </c>
-      <c r="S73" s="11">
+      <c r="S73" s="9">
         <v>55.058139534883701</v>
       </c>
-      <c r="T73" s="11">
+      <c r="T73" s="9">
         <v>17.537037037036999</v>
       </c>
-      <c r="U73" s="11">
+      <c r="U73" s="9">
         <v>14.5555555555555</v>
       </c>
     </row>
@@ -19448,46 +19450,46 @@
       <c r="G74">
         <v>20</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H74" s="9">
         <v>2.1349999999999998</v>
       </c>
-      <c r="I74" s="11">
+      <c r="I74" s="9">
         <v>0.61799999999999999</v>
       </c>
       <c r="J74">
         <v>70</v>
       </c>
-      <c r="K74" s="11">
+      <c r="K74" s="9">
         <v>2.7530000000000001</v>
       </c>
       <c r="L74">
         <v>70</v>
       </c>
-      <c r="M74" s="11">
+      <c r="M74" s="9">
         <v>7.1428571428571397</v>
       </c>
-      <c r="N74" s="11">
+      <c r="N74" s="9">
         <v>10</v>
       </c>
-      <c r="O74" s="11">
+      <c r="O74" s="9">
         <v>0.39328571428571402</v>
       </c>
-      <c r="P74" s="11">
+      <c r="P74" s="9">
         <v>9.1766666666666694</v>
       </c>
-      <c r="Q74" s="11">
+      <c r="Q74" s="9">
         <v>0.30499999999999999</v>
       </c>
-      <c r="R74" s="11">
+      <c r="R74" s="9">
         <v>7.1166666666666698</v>
       </c>
-      <c r="S74" s="11">
+      <c r="S74" s="9">
         <v>39.328571428571401</v>
       </c>
-      <c r="T74" s="11">
+      <c r="T74" s="9">
         <v>13.1095238095238</v>
       </c>
-      <c r="U74" s="11">
+      <c r="U74" s="9">
         <v>10.1666666666667</v>
       </c>
     </row>
@@ -19513,46 +19515,46 @@
       <c r="G75">
         <v>13</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H75" s="9">
         <v>2.72</v>
       </c>
-      <c r="I75" s="11">
+      <c r="I75" s="9">
         <v>0.70499999999999996</v>
       </c>
       <c r="J75">
         <v>50</v>
       </c>
-      <c r="K75" s="11">
+      <c r="K75" s="9">
         <v>3.4249999999999998</v>
       </c>
       <c r="L75">
         <v>70</v>
       </c>
-      <c r="M75" s="11">
+      <c r="M75" s="9">
         <v>5.28571428571429</v>
       </c>
-      <c r="N75" s="11">
+      <c r="N75" s="9">
         <v>7.1428571428571397</v>
       </c>
-      <c r="O75" s="11">
+      <c r="O75" s="9">
         <v>0.48928571428571399</v>
       </c>
-      <c r="P75" s="11">
+      <c r="P75" s="9">
         <v>11.4166666666667</v>
       </c>
-      <c r="Q75" s="11">
+      <c r="Q75" s="9">
         <v>0.38857142857142901</v>
       </c>
-      <c r="R75" s="11">
+      <c r="R75" s="9">
         <v>9.06666666666667</v>
       </c>
-      <c r="S75" s="11">
+      <c r="S75" s="9">
         <v>68.5</v>
       </c>
-      <c r="T75" s="11">
+      <c r="T75" s="9">
         <v>16.3095238095238</v>
       </c>
-      <c r="U75" s="11">
+      <c r="U75" s="9">
         <v>12.952380952380899</v>
       </c>
     </row>
@@ -19578,46 +19580,46 @@
       <c r="G76">
         <v>28</v>
       </c>
-      <c r="H76" s="11">
+      <c r="H76" s="9">
         <v>3.76</v>
       </c>
-      <c r="I76" s="11">
+      <c r="I76" s="9">
         <v>0.98</v>
       </c>
       <c r="J76">
         <v>68</v>
       </c>
-      <c r="K76" s="11">
+      <c r="K76" s="9">
         <v>4.74</v>
       </c>
       <c r="L76">
         <v>80</v>
       </c>
-      <c r="M76" s="11">
+      <c r="M76" s="9">
         <v>5</v>
       </c>
-      <c r="N76" s="11">
+      <c r="N76" s="9">
         <v>8.5</v>
       </c>
-      <c r="O76" s="11">
+      <c r="O76" s="9">
         <v>0.59250000000000003</v>
       </c>
-      <c r="P76" s="11">
+      <c r="P76" s="9">
         <v>15.8</v>
       </c>
-      <c r="Q76" s="11">
+      <c r="Q76" s="9">
         <v>0.47</v>
       </c>
-      <c r="R76" s="11">
+      <c r="R76" s="9">
         <v>12.533333333333299</v>
       </c>
-      <c r="S76" s="11">
+      <c r="S76" s="9">
         <v>69.705882352941202</v>
       </c>
-      <c r="T76" s="11">
+      <c r="T76" s="9">
         <v>19.75</v>
       </c>
-      <c r="U76" s="11">
+      <c r="U76" s="9">
         <v>15.6666666666667</v>
       </c>
     </row>
@@ -19643,46 +19645,46 @@
       <c r="G77">
         <v>33</v>
       </c>
-      <c r="H77" s="11">
+      <c r="H77" s="9">
         <v>3.7850000000000001</v>
       </c>
-      <c r="I77" s="11">
+      <c r="I77" s="9">
         <v>0.97</v>
       </c>
       <c r="J77">
         <v>72</v>
       </c>
-      <c r="K77" s="11">
+      <c r="K77" s="9">
         <v>4.7549999999999999</v>
       </c>
       <c r="L77">
         <v>100</v>
       </c>
-      <c r="M77" s="11">
+      <c r="M77" s="9">
         <v>3.9</v>
       </c>
-      <c r="N77" s="11">
+      <c r="N77" s="9">
         <v>7.2</v>
       </c>
-      <c r="O77" s="11">
+      <c r="O77" s="9">
         <v>0.47549999999999998</v>
       </c>
-      <c r="P77" s="11">
+      <c r="P77" s="9">
         <v>15.85</v>
       </c>
-      <c r="Q77" s="11">
+      <c r="Q77" s="9">
         <v>0.3785</v>
       </c>
-      <c r="R77" s="11">
+      <c r="R77" s="9">
         <v>12.616666666666699</v>
       </c>
-      <c r="S77" s="11">
+      <c r="S77" s="9">
         <v>66.0416666666667</v>
       </c>
-      <c r="T77" s="11">
+      <c r="T77" s="9">
         <v>15.85</v>
       </c>
-      <c r="U77" s="11">
+      <c r="U77" s="9">
         <v>12.616666666666699</v>
       </c>
     </row>
@@ -19708,46 +19710,46 @@
       <c r="G78">
         <v>31</v>
       </c>
-      <c r="H78" s="11">
+      <c r="H78" s="9">
         <v>2.0750000000000002</v>
       </c>
-      <c r="I78" s="11">
+      <c r="I78" s="9">
         <v>0.62</v>
       </c>
       <c r="J78">
         <v>84</v>
       </c>
-      <c r="K78" s="11">
+      <c r="K78" s="9">
         <v>2.6949999999999998</v>
       </c>
       <c r="L78">
         <v>100</v>
       </c>
-      <c r="M78" s="11">
+      <c r="M78" s="9">
         <v>5.3</v>
       </c>
-      <c r="N78" s="11">
+      <c r="N78" s="9">
         <v>8.4</v>
       </c>
-      <c r="O78" s="11">
+      <c r="O78" s="9">
         <v>0.26950000000000002</v>
       </c>
-      <c r="P78" s="11">
+      <c r="P78" s="9">
         <v>8.9833333333333307</v>
       </c>
-      <c r="Q78" s="11">
+      <c r="Q78" s="9">
         <v>0.20749999999999999</v>
       </c>
-      <c r="R78" s="11">
+      <c r="R78" s="9">
         <v>6.9166666666666696</v>
       </c>
-      <c r="S78" s="11">
+      <c r="S78" s="9">
         <v>32.0833333333333</v>
       </c>
-      <c r="T78" s="11">
+      <c r="T78" s="9">
         <v>8.9833333333333307</v>
       </c>
-      <c r="U78" s="11">
+      <c r="U78" s="9">
         <v>6.9166666666666599</v>
       </c>
     </row>
@@ -19773,46 +19775,46 @@
       <c r="G79">
         <v>12</v>
       </c>
-      <c r="H79" s="11">
+      <c r="H79" s="9">
         <v>1.42</v>
       </c>
-      <c r="I79" s="11">
+      <c r="I79" s="9">
         <v>0.5</v>
       </c>
       <c r="J79">
         <v>42</v>
       </c>
-      <c r="K79" s="11">
+      <c r="K79" s="9">
         <v>1.92</v>
       </c>
       <c r="L79">
         <v>100</v>
       </c>
-      <c r="M79" s="11">
+      <c r="M79" s="9">
         <v>3</v>
       </c>
-      <c r="N79" s="11">
+      <c r="N79" s="9">
         <v>4.2</v>
       </c>
-      <c r="O79" s="11">
+      <c r="O79" s="9">
         <v>0.192</v>
       </c>
-      <c r="P79" s="11">
+      <c r="P79" s="9">
         <v>6.4</v>
       </c>
-      <c r="Q79" s="11">
+      <c r="Q79" s="9">
         <v>0.14199999999999999</v>
       </c>
-      <c r="R79" s="11">
+      <c r="R79" s="9">
         <v>4.7333333333333298</v>
       </c>
-      <c r="S79" s="11">
+      <c r="S79" s="9">
         <v>45.714285714285701</v>
       </c>
-      <c r="T79" s="11">
+      <c r="T79" s="9">
         <v>6.3999999999999897</v>
       </c>
-      <c r="U79" s="11">
+      <c r="U79" s="9">
         <v>4.7333333333333298</v>
       </c>
     </row>
@@ -19838,46 +19840,46 @@
       <c r="G80">
         <v>28</v>
       </c>
-      <c r="H80" s="11">
+      <c r="H80" s="9">
         <v>1.325</v>
       </c>
-      <c r="I80" s="11">
+      <c r="I80" s="9">
         <v>0.628</v>
       </c>
       <c r="J80">
         <v>41</v>
       </c>
-      <c r="K80" s="11">
+      <c r="K80" s="9">
         <v>1.9530000000000001</v>
       </c>
       <c r="L80">
         <v>80</v>
       </c>
-      <c r="M80" s="11">
+      <c r="M80" s="9">
         <v>1.625</v>
       </c>
-      <c r="N80" s="11">
+      <c r="N80" s="9">
         <v>5.125</v>
       </c>
-      <c r="O80" s="11">
+      <c r="O80" s="9">
         <v>0.24412500000000001</v>
       </c>
-      <c r="P80" s="11">
+      <c r="P80" s="9">
         <v>6.51</v>
       </c>
-      <c r="Q80" s="11">
+      <c r="Q80" s="9">
         <v>0.16562499999999999</v>
       </c>
-      <c r="R80" s="11">
+      <c r="R80" s="9">
         <v>4.4166666666666696</v>
       </c>
-      <c r="S80" s="11">
+      <c r="S80" s="9">
         <v>47.634146341463399</v>
       </c>
-      <c r="T80" s="11">
+      <c r="T80" s="9">
         <v>8.1374999999999904</v>
       </c>
-      <c r="U80" s="11">
+      <c r="U80" s="9">
         <v>5.5208333333333304</v>
       </c>
     </row>
@@ -19903,46 +19905,46 @@
       <c r="G81">
         <v>30</v>
       </c>
-      <c r="H81" s="11">
+      <c r="H81" s="9">
         <v>2.1379999999999999</v>
       </c>
-      <c r="I81" s="11">
+      <c r="I81" s="9">
         <v>0.97499999999999998</v>
       </c>
       <c r="J81">
         <v>52</v>
       </c>
-      <c r="K81" s="11">
+      <c r="K81" s="9">
         <v>3.113</v>
       </c>
       <c r="L81">
         <v>80</v>
       </c>
-      <c r="M81" s="11">
+      <c r="M81" s="9">
         <v>2.75</v>
       </c>
-      <c r="N81" s="11">
+      <c r="N81" s="9">
         <v>6.5</v>
       </c>
-      <c r="O81" s="11">
+      <c r="O81" s="9">
         <v>0.389125</v>
       </c>
-      <c r="P81" s="11">
+      <c r="P81" s="9">
         <v>10.376666666666701</v>
       </c>
-      <c r="Q81" s="11">
+      <c r="Q81" s="9">
         <v>0.26724999999999999</v>
       </c>
-      <c r="R81" s="11">
+      <c r="R81" s="9">
         <v>7.1266666666666696</v>
       </c>
-      <c r="S81" s="11">
+      <c r="S81" s="9">
         <v>59.865384615384599</v>
       </c>
-      <c r="T81" s="11">
+      <c r="T81" s="9">
         <v>12.970833333333299</v>
       </c>
-      <c r="U81" s="11">
+      <c r="U81" s="9">
         <v>8.9083333333333208</v>
       </c>
     </row>
@@ -19961,7 +19963,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
